--- a/protocol/back与hmi通信协议.xlsx
+++ b/protocol/back与hmi通信协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\通信协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4806598A-4254-4164-A1C1-E5B394BDFC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D48C61-D9D1-4B41-A092-FA850EFE407D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hmiToB" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>通信项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,11 +97,6 @@
   </si>
   <si>
     <t>id：5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：上传失败
-1：上传成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,11 +108,6 @@
   <si>
     <t>0:失败
 1~100：进度条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id：2
-data：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -861,17 +851,6 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/protocol/back与hmi通信协议.xlsx
+++ b/protocol/back与hmi通信协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\通信协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D48C61-D9D1-4B41-A092-FA850EFE407D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A010A4-C095-493D-A658-79E25A68E899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hmiToB" sheetId="2" r:id="rId1"/>
@@ -83,11 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">id：2
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id：3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,7 +102,12 @@
   </si>
   <si>
     <t>0:失败
-1~100：进度条</t>
+1：成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">id：2
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BA1EC8-92B6-4101-8AF0-A501B82ADA22}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
